--- a/biology/Médecine/Louis-Gilles_Durand/Louis-Gilles_Durand.xlsx
+++ b/biology/Médecine/Louis-Gilles_Durand/Louis-Gilles_Durand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis-Gilles Durand est un ingénieur et professeur québécois né à Saint-Jean-de-Matha, en 1949. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il termine des études de génie électrique à l’École polytechnique de Montréal en 1975, puis des études de génie biomédical, maîtrise et doctorat, à l’Université de Montréal de 1976 à 1983.
 Il œuvre dans les domaines du génie biomédical et de la physiologie cardiovasculaire. Son expertise est principalement dans la création d’instruments et de méthodes pour évaluer les désordres cardiovasculaires et pulmonaires. 
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1995 - Bionetics Outstanding Canadian Biomedical Engineer Award de la Société canadienne de génie biomédical
 1996 - Prix Marcel-Piché de l’Institut de recherches cliniques de Montréal
